--- a/generated/oliva1992.xlsx
+++ b/generated/oliva1992.xlsx
@@ -461,19 +461,19 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>RC2 posicions</t>
+          <t>RM1 posicions</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RC3 posicions</t>
+          <t>RM2 posicions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,29 +482,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7, 9</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>TATATTATAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -513,17 +509,17 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3, 5, 7, 9</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -531,7 +527,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -540,29 +536,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2, 5, 9</t>
+          <t>1, 4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -571,29 +567,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3, 9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -602,29 +594,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2, 5, 9</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>2, 6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -633,29 +621,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5, 9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>2, 8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -664,29 +652,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3, 5, 9</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -695,29 +679,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2, 5</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3, 9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -726,29 +706,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3, 5, 7</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -757,29 +729,29 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4, 7, 9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2, 5</t>
+          <t>2, 5, 8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -788,29 +760,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5, 7, 9</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2, 8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +787,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3, 7, 9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -850,29 +818,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2, 5, 7</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3, 9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -881,29 +845,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2, 7, 9</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4, 8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -912,29 +872,29 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2, 4, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5, 9</t>
+          <t>5, 8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -943,29 +903,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5, 8</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3, 6, 9</t>
+          <t>4, 8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -984,19 +940,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5, 9</t>
+          <t>4, 8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1005,29 +961,29 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3, 5, 8</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6, 9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1036,29 +992,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3, 5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2, 8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1067,29 +1023,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2, 5, 7, 9</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TATATTATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1098,25 +1050,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2, 4, 7, 9</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1135,19 +1091,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5, 9</t>
+          <t>4, 8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1156,22 +1112,22 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
         <v>4</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5</v>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2, 4, 7, 9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 4, 8</t>
         </is>
       </c>
     </row>
@@ -1187,29 +1143,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3, 9</t>
+          <t>2, 8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1218,22 +1170,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5, 9</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1992.xlsx
+++ b/generated/oliva1992.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:Q161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,24 +456,74 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>RAB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RADB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RC1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RC2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RC3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Complexitat</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>RM1 posicions</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>RM2 posicions</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RAB posicions</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RADB posicions</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RC1 posicions</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>RC2 posicions</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RC3 posicions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>0303030303</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -485,22 +535,38 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TATATTATAT</t>
+          <t>0303030003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,25 +575,45 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>0003030303</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -536,29 +622,45 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>0203030303</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -570,22 +672,42 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>0303030203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -597,22 +719,42 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>0303030103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -621,29 +763,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>0203030003</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -655,22 +817,46 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>0203030203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -682,22 +868,42 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>0302030303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -714,13 +920,41 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>0103030303</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,29 +963,49 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2, 5, 8</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>0303000303</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -763,22 +1017,46 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2, 8</t>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>0303020303</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -787,29 +1065,49 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>0003030003</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -821,22 +1119,42 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>0003030203</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -848,22 +1166,46 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4, 8</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>0003000303</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -872,29 +1214,49 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5, 8</t>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>0203030103</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -906,22 +1268,46 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4, 8</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>0202030303</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -930,29 +1316,49 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>1, 3</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4, 8</t>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>0103030003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -961,29 +1367,49 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>0103030203</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -992,29 +1418,49 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>0303010303</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,22 +1472,50 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>8</t>
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>0303020003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1050,29 +1524,53 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2, 6</t>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>0302030003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1081,29 +1579,53 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4, 8</t>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>0302030203</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1112,29 +1634,49 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1, 4, 8</t>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>0003030103</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1146,22 +1688,46 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>2, 8</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>0301030303</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1170,20 +1736,7889 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0303000003</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3003030303</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0003020303</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0303000203</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0002030303</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0303020203</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0300030303</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0203000303</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0203020303</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0103030103</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3003030003</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0001030303</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0203000003</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0303010203</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0203010303</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0303020103</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0103000303</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3003030203</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0003020003</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0103020303</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0302030103</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0003000203</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0000030303</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0300030203</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0203020203</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0301030203</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0202030003</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0301030003</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0201030303</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0003010303</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0003000003</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0300030003</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0002030003</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0003020203</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0203020003</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0102030303</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0202030203</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0303010003</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0303000103</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0203000203</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0200030303</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0002030203</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0102030003</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0202030103</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0203000103</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3003020303</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0100030303</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0103020203</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0200030203</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0200030003</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0303010103</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0003010003</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3003000303</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0203010003</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3002030303</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0201030003</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0003000103</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0300030103</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0301030103</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0003010203</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0000030003</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0203010203</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0103000003</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0303003003</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0001030003</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3003030103</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0001030203</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0201030203</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0003020103</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0000030203</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0103010303</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0203020103</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0102030203</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0103000203</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0101030303</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0002030103</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0103020003</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3002030203</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0103010203</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0203003003</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0201030103</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0103000103</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3003020203</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0101030003</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>6</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3002030003</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0000030103</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0100030003</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0101030203</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0001030103</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0003003003</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0103010003</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0003010103</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0103020103</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>6</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3001030303</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3003010303</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0100030203</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>6</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3003000203</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0102030103</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>6</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3003000003</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0200030103</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0203010103</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3000030303</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3003020003</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3002030103</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3003000103</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3000030003</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0030030303</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3001030003</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0100030103</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3003020103</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3000030203</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>3003010003</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3001030203</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0103010103</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0103003003</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3003010203</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0101030103</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>7</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>3030030303</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0030030203</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0020030303</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3001030103</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3000030103</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0010030303</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0030030003</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3003010103</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0020030203</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0020030003</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0030030103</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>3030030003</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0010030203</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0010030003</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>3030030203</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>3030030103</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>10</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0010030103</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>10</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0020030103</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>10</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/generated/oliva1992.xlsx
+++ b/generated/oliva1992.xlsx
@@ -613,7 +613,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0003030303</t>
+          <t>0303030203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -707,7 +707,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0303030203</t>
+          <t>0003030303</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0203030003</t>
+          <t>0103030303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -848,7 +848,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -856,7 +856,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0203030203</t>
+          <t>0003030003</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0302030303</t>
+          <t>0203030003</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -940,21 +940,21 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0103030303</t>
+          <t>0003030203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -991,7 +991,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0303000303</t>
+          <t>0303020303</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t>6</t>
@@ -1056,7 +1056,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0303020303</t>
+          <t>0303000303</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>6</t>
@@ -1107,7 +1107,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0003030003</t>
+          <t>0302030303</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1125,16 +1125,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1142,19 +1142,23 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0003030203</t>
+          <t>0203030203</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1172,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1191,21 +1195,17 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0003000303</t>
+          <t>3003030303</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1226,37 +1226,41 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0203030103</t>
+          <t>0003000303</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1274,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -1291,23 +1295,23 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0202030303</t>
+          <t>0302030203</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1344,7 +1348,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1358,7 +1362,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0103030003</t>
+          <t>0203020303</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1376,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -1395,21 +1399,21 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0103030203</t>
+          <t>0303000203</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1427,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1436,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -1446,21 +1450,25 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0303010303</t>
+          <t>0203000303</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1497,7 +1505,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1515,7 +1523,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0303020003</t>
+          <t>0303010303</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1558,7 +1566,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -1570,7 +1578,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0302030003</t>
+          <t>0202030303</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1588,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1607,15 +1615,11 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>4</t>
@@ -1625,7 +1629,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0302030203</t>
+          <t>0203030103</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1649,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -1662,21 +1666,21 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0003030103</t>
+          <t>0303000003</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1694,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1703,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -1711,23 +1715,23 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0301030303</t>
+          <t>0302030003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1770,7 +1774,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -1782,7 +1786,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0303000003</t>
+          <t>0103030003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1800,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1809,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -1817,23 +1821,23 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>6, 8</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3003030303</t>
+          <t>0303020003</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1842,7 +1846,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1851,44 +1855,44 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0003020303</t>
+          <t>0002030303</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1925,7 +1929,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1936,14 +1940,14 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0303000203</t>
+          <t>0003020303</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1980,13 +1984,13 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -1998,7 +2002,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0002030303</t>
+          <t>0003030103</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2022,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -2035,25 +2039,21 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0303020203</t>
+          <t>0103030203</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -2090,21 +2090,21 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0300030303</t>
+          <t>0303020203</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2116,19 +2116,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2137,29 +2137,25 @@
         <v>3</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0203000303</t>
+          <t>0300030303</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2171,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2192,29 +2188,29 @@
         <v>3</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0203020303</t>
+          <t>0301030303</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2232,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2251,21 +2247,25 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0103030103</t>
+          <t>0003020003</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -2302,7 +2302,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2311,12 +2311,16 @@
           <t>2, 8</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3003030003</t>
+          <t>0202030003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2325,7 +2329,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2334,44 +2338,44 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0001030303</t>
+          <t>0301030003</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2414,7 +2418,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2426,7 +2430,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0203000003</t>
+          <t>0300030203</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2438,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2450,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2459,29 +2463,33 @@
         <v>4</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0303010203</t>
+          <t>0203000003</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2499,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2518,13 +2526,13 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -2536,7 +2544,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0203010303</t>
+          <t>0000030303</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2548,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2569,29 +2577,29 @@
         <v>4</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0303020103</t>
+          <t>0302030103</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2628,7 +2636,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2639,14 +2647,14 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0103000303</t>
+          <t>0303010203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2664,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -2683,13 +2691,13 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -2701,7 +2709,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3003030203</t>
+          <t>0103030103</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2710,7 +2718,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2719,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2733,26 +2741,18 @@
       <c r="J44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
@@ -2760,7 +2760,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0003020003</t>
+          <t>0201030303</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2797,25 +2797,25 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0103020303</t>
+          <t>0200030303</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2827,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2848,29 +2848,33 @@
         <v>4</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0302030103</t>
+          <t>0003010303</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2888,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2907,25 +2911,25 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0003000203</t>
+          <t>0203020203</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2943,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2962,15 +2966,11 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
           <t>6</t>
@@ -2980,7 +2980,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0000030303</t>
+          <t>3003030203</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2989,53 +2989,57 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2, 4</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0300030203</t>
+          <t>0303000103</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3047,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -3059,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -3068,11 +3072,7 @@
         <v>4</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
@@ -3082,19 +3082,19 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0203020203</t>
+          <t>0003020203</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -3131,11 +3131,15 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr">
         <is>
           <t>6</t>
@@ -3145,7 +3149,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0301030203</t>
+          <t>0300030003</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3157,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -3178,17 +3182,17 @@
         <v>4</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -3200,7 +3204,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0202030003</t>
+          <t>0103020303</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3237,25 +3241,25 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0301030003</t>
+          <t>0003000003</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3273,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -3290,27 +3294,23 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0201030303</t>
+          <t>3003030003</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3328,44 +3328,44 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0003010303</t>
+          <t>0303020103</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3383,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -3402,13 +3402,13 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0003000003</t>
+          <t>0303010003</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -3455,11 +3455,15 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -3471,7 +3475,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0300030003</t>
+          <t>0103000303</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3483,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3504,29 +3508,29 @@
         <v>4</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0002030003</t>
+          <t>0301030203</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3544,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -3563,13 +3567,13 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -3581,7 +3585,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0003020203</t>
+          <t>0001030303</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3599,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -3618,25 +3622,25 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0203020003</t>
+          <t>0203000203</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3673,13 +3677,13 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -3691,7 +3695,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0102030303</t>
+          <t>0002030203</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3728,7 +3732,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3746,7 +3750,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0202030203</t>
+          <t>0203020003</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3764,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -3783,21 +3787,25 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0303010003</t>
+          <t>0003000203</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3834,13 +3842,13 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -3852,7 +3860,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0303000103</t>
+          <t>0202030203</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3870,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -3889,25 +3897,21 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>6, 8</t>
-        </is>
-      </c>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0203000203</t>
+          <t>0002030003</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3925,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -3944,25 +3948,25 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0200030303</t>
+          <t>0203010303</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3974,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3995,33 +3999,29 @@
         <v>4</v>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0002030203</t>
+          <t>0102030303</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4076,7 +4076,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0102030003</t>
+          <t>3003030103</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4094,44 +4094,48 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>5</v>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>2, 8</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0202030103</t>
+          <t>0201030203</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4174,7 +4178,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -4186,7 +4190,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0203000103</t>
+          <t>0200030203</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4198,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4210,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -4219,7 +4223,11 @@
         <v>5</v>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
@@ -4229,19 +4237,19 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3003020303</t>
+          <t>0001030203</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4250,7 +4258,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -4259,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -4273,38 +4281,30 @@
       <c r="J72" t="n">
         <v>5</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0100030303</t>
+          <t>0303010103</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -4337,33 +4337,29 @@
         <v>5</v>
       </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0103020203</t>
+          <t>0003010003</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4381,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>3</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -4400,13 +4396,13 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -4418,7 +4414,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0200030203</t>
+          <t>0202030103</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4430,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -4451,21 +4447,17 @@
         <v>5</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -4477,7 +4469,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0200030003</t>
+          <t>0000030203</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4518,13 +4510,13 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -4536,7 +4528,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0303010103</t>
+          <t>0203010003</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4573,7 +4565,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4591,7 +4583,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0003010003</t>
+          <t>0103020003</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4609,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -4628,13 +4620,13 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -4646,7 +4638,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3003000303</t>
+          <t>0103000003</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4655,7 +4647,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4664,13 +4656,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -4678,22 +4670,18 @@
       <c r="J79" t="n">
         <v>5</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -4705,7 +4693,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0203010003</t>
+          <t>3003000303</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4714,7 +4702,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4723,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>2</v>
@@ -4737,18 +4725,22 @@
       <c r="J80" t="n">
         <v>5</v>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -4760,7 +4752,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3002030303</t>
+          <t>0201030003</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4769,7 +4761,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -4778,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -4792,26 +4784,18 @@
       <c r="J81" t="n">
         <v>5</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -4823,7 +4807,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0201030003</t>
+          <t>0003010203</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4860,25 +4844,25 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0003000103</t>
+          <t>0000030003</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4890,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4911,29 +4895,29 @@
         <v>5</v>
       </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0300030103</t>
+          <t>3002030303</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4942,10 +4926,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4954,10 +4938,10 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -4965,22 +4949,26 @@
       <c r="J84" t="n">
         <v>5</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -4992,7 +4980,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0301030103</t>
+          <t>0203020103</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5010,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -5029,25 +5017,25 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0003010203</t>
+          <t>3003020303</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5056,7 +5044,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -5065,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -5079,18 +5067,26 @@
       <c r="J86" t="n">
         <v>5</v>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -5102,7 +5098,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0000030003</t>
+          <t>0203000103</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5114,19 +5110,19 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -5135,29 +5131,29 @@
         <v>5</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0203010203</t>
+          <t>0301030103</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5175,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -5194,25 +5190,25 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0103000003</t>
+          <t>0103020203</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5230,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -5249,13 +5245,13 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -5267,7 +5263,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0303003003</t>
+          <t>0100030303</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5276,19 +5272,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -5299,34 +5295,34 @@
       <c r="J90" t="n">
         <v>5</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0001030003</t>
+          <t>0102030003</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5344,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -5363,13 +5359,13 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -5381,7 +5377,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3003030103</t>
+          <t>0300030103</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5390,10 +5386,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -5402,45 +5398,45 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>5</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0001030203</t>
+          <t>0002030103</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5483,7 +5479,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -5495,7 +5491,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0201030203</t>
+          <t>0203010203</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5532,25 +5528,25 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0003020103</t>
+          <t>0103000203</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5587,13 +5583,13 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -5605,7 +5601,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0000030203</t>
+          <t>0001030003</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5617,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -5629,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -5638,21 +5634,17 @@
         <v>5</v>
       </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -5664,7 +5656,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0103010303</t>
+          <t>0303003003</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5673,7 +5665,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5682,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
@@ -5696,18 +5688,22 @@
       <c r="J97" t="n">
         <v>5</v>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -5719,7 +5715,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0203020103</t>
+          <t>0200030003</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5731,19 +5727,19 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -5752,29 +5748,33 @@
         <v>5</v>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0102030203</t>
+          <t>0101030303</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5792,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -5811,13 +5811,13 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -5829,7 +5829,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0103000203</t>
+          <t>0003000103</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5847,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -5866,13 +5866,13 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0101030303</t>
+          <t>0103010303</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5921,25 +5921,25 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0002030103</t>
+          <t>0003020103</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5976,7 +5976,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -5987,14 +5987,14 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0103020003</t>
+          <t>0102030203</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6012,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -6031,25 +6031,25 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3002030203</t>
+          <t>3000030303</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6061,19 +6061,19 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -6086,13 +6086,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
           <t>1</t>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0103010203</t>
+          <t>0203003003</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -6130,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>2</v>
@@ -6144,18 +6144,26 @@
       <c r="J105" t="n">
         <v>6</v>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -6167,7 +6175,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0203003003</t>
+          <t>3002030003</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6201,36 +6209,36 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0201030103</t>
+          <t>3003020203</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6239,7 +6247,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -6248,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -6262,30 +6270,38 @@
       <c r="J107" t="n">
         <v>6</v>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0103000103</t>
+          <t>0102030103</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6303,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -6322,25 +6338,25 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3003020203</t>
+          <t>0200030103</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6349,10 +6365,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -6361,10 +6377,10 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -6372,38 +6388,34 @@
       <c r="J109" t="n">
         <v>6</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0101030003</t>
+          <t>0103000103</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6440,25 +6452,25 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3002030003</t>
+          <t>3003010303</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6499,7 +6511,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -6509,19 +6521,19 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0000030103</t>
+          <t>0003010103</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6533,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6554,33 +6566,29 @@
         <v>6</v>
       </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0100030003</t>
+          <t>0001030103</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6592,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6613,15 +6621,11 @@
         <v>6</v>
       </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -6639,7 +6643,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0101030203</t>
+          <t>3001030303</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6648,7 +6652,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -6657,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -6671,15 +6675,23 @@
       <c r="J114" t="n">
         <v>6</v>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr">
         <is>
           <t>2, 4</t>
@@ -6694,7 +6706,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0001030103</t>
+          <t>0101030203</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6712,13 +6724,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -6731,13 +6743,13 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
@@ -6749,7 +6761,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0003003003</t>
+          <t>0000030103</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6758,19 +6770,19 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
@@ -6781,34 +6793,34 @@
       <c r="J116" t="n">
         <v>6</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0103010003</t>
+          <t>3003000203</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6817,7 +6829,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -6826,13 +6838,13 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -6840,18 +6852,26 @@
       <c r="J117" t="n">
         <v>6</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -6863,7 +6883,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0003010103</t>
+          <t>0101030003</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6900,25 +6920,25 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0103020103</t>
+          <t>3002030203</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6927,7 +6947,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -6936,13 +6956,13 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -6950,30 +6970,38 @@
       <c r="J119" t="n">
         <v>6</v>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3001030303</t>
+          <t>3003000003</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6991,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -7012,11 +7040,7 @@
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
           <t>1</t>
@@ -7024,19 +7048,19 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3003010303</t>
+          <t>0100030203</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7045,19 +7069,19 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>2</v>
@@ -7068,38 +7092,34 @@
       <c r="J121" t="n">
         <v>6</v>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0100030203</t>
+          <t>0003003003</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7108,22 +7128,22 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -7131,34 +7151,34 @@
       <c r="J122" t="n">
         <v>6</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3003000203</t>
+          <t>0203010103</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7167,7 +7187,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -7176,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>2</v>
@@ -7190,26 +7210,18 @@
       <c r="J123" t="n">
         <v>6</v>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -7221,7 +7233,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0102030103</t>
+          <t>0103010003</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7239,13 +7251,13 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
         <v>3</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -7258,25 +7270,25 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3003000003</t>
+          <t>0103020103</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7285,7 +7297,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -7294,13 +7306,13 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -7308,22 +7320,18 @@
       <c r="J125" t="n">
         <v>6</v>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -7335,7 +7343,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0200030103</t>
+          <t>0103010203</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7347,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7368,33 +7376,29 @@
         <v>6</v>
       </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0203010103</t>
+          <t>0201030103</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7431,25 +7435,25 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3000030303</t>
+          <t>3003020003</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7461,13 +7465,13 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7486,13 +7490,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr">
         <is>
           <t>1</t>
@@ -7500,19 +7504,19 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3003020003</t>
+          <t>0100030003</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7521,10 +7525,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -7533,10 +7537,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -7544,38 +7548,34 @@
       <c r="J129" t="n">
         <v>6</v>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3002030103</t>
+          <t>3001030203</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -7638,7 +7638,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3003000103</t>
+          <t>3003010003</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7679,7 +7679,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -7701,7 +7701,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3000030003</t>
+          <t>0030030303</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7713,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -7735,24 +7735,24 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0030030303</t>
+          <t>3003020103</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7776,13 +7776,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7798,36 +7798,36 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3001030003</t>
+          <t>0101030103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -7845,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>3</v>
@@ -7859,23 +7859,15 @@
       <c r="J134" t="n">
         <v>7</v>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>2, 4, 8</t>
@@ -7890,7 +7882,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0100030103</t>
+          <t>3002030103</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7899,10 +7891,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -7911,10 +7903,10 @@
         <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -7922,22 +7914,26 @@
       <c r="J135" t="n">
         <v>7</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -7949,7 +7945,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3003020103</t>
+          <t>3001030003</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7967,13 +7963,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -7990,7 +7986,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -8000,19 +7996,19 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3000030203</t>
+          <t>3003010203</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8024,13 +8020,13 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8049,15 +8045,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -8067,19 +8059,19 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3003010003</t>
+          <t>3003000103</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8120,7 +8112,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -8142,7 +8134,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3001030203</t>
+          <t>0103010103</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8151,7 +8143,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8160,13 +8152,13 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -8174,38 +8166,30 @@
       <c r="J139" t="n">
         <v>7</v>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0103010103</t>
+          <t>3000030203</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8214,22 +8198,22 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -8237,30 +8221,42 @@
       <c r="J140" t="n">
         <v>7</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0103003003</t>
+          <t>3000030003</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8272,13 +8268,13 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8294,36 +8290,36 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr">
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3003010203</t>
+          <t>0103003003</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8341,13 +8337,13 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -8357,24 +8353,24 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -8386,7 +8382,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0101030103</t>
+          <t>0100030103</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8398,13 +8394,13 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -8419,11 +8415,15 @@
         <v>7</v>
       </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="O143" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0020030303</t>
+          <t>3001030103</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8583,19 +8583,19 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -8605,28 +8605,24 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -8638,7 +8634,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3001030103</t>
+          <t>0010030303</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8650,19 +8646,19 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -8672,24 +8668,28 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -8701,7 +8701,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3000030103</t>
+          <t>0020030303</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -8735,28 +8735,28 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -8768,7 +8768,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0010030303</t>
+          <t>3003010103</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8780,19 +8780,19 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -8802,33 +8802,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8894,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3003010103</t>
+          <t>3000030103</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8910,13 +8906,13 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8935,11 +8931,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -8949,19 +8949,19 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0020030203</t>
+          <t>0030030103</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8979,13 +8979,13 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -9006,7 +9006,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
@@ -9028,7 +9028,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0020030003</t>
+          <t>3030030003</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
@@ -9062,23 +9062,19 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -9095,7 +9091,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0030030103</t>
+          <t>0010030203</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -9113,13 +9109,13 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -9140,7 +9136,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -9150,7 +9146,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -9162,7 +9158,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3030030003</t>
+          <t>0020030003</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9171,19 +9167,19 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>3</v>
@@ -9196,19 +9192,23 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -9225,7 +9225,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0010030203</t>
+          <t>0010030003</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -9270,7 +9270,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
@@ -9292,7 +9292,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0010030003</t>
+          <t>0020030203</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -9337,7 +9337,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -9426,7 +9426,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3030030103</t>
+          <t>0010030103</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9435,19 +9435,19 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>3</v>
@@ -9460,23 +9460,23 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -9493,7 +9493,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0010030103</t>
+          <t>0020030103</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -9560,7 +9560,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0020030103</t>
+          <t>3030030103</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -9569,19 +9569,19 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>3</v>
@@ -9594,23 +9594,23 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">

--- a/generated/oliva1992.xlsx
+++ b/generated/oliva1992.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0003030303</t>
+          <t>0303030003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0303030003</t>
+          <t>0003030303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -711,7 +711,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0203030003</t>
+          <t>0303000303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -807,18 +807,18 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0303030103</t>
+          <t>0303020303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -863,16 +863,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0103030303</t>
+          <t>0003030003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -915,15 +915,11 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -988,7 +984,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0203030203</t>
+          <t>0003030203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1006,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1025,11 +1021,15 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0003030203</t>
+          <t>0203030203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1075,15 +1075,11 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0303020303</t>
+          <t>0303030103</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1116,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1129,16 +1125,16 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1146,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0003030003</t>
+          <t>0203030003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1164,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1181,11 +1177,15 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0303000303</t>
+          <t>0103030303</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1231,18 +1231,18 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0303000003</t>
+          <t>0203020303</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1285,13 +1285,13 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>6, 8</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>6</t>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0103030003</t>
+          <t>0003020303</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
@@ -1341,16 +1341,20 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1358,7 +1362,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0303000203</t>
+          <t>0003030103</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1382,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1401,14 +1405,10 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0002030303</t>
+          <t>0203030103</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1453,20 +1453,16 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1474,7 +1470,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0202030303</t>
+          <t>0301030303</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1492,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1511,11 +1507,15 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
           <t>4</t>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0302030003</t>
+          <t>0202030303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1565,15 +1565,11 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
           <t>4</t>
@@ -1586,7 +1582,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3003030303</t>
+          <t>0303000003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1595,7 +1591,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1607,36 +1603,32 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1644,7 +1636,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0303020203</t>
+          <t>3003030303</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1653,7 +1645,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1662,35 +1654,39 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1698,7 +1694,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0301030303</t>
+          <t>0203000303</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1735,18 +1731,18 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1810,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0003030103</t>
+          <t>0002030303</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1838,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
@@ -1851,16 +1847,20 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0203020303</t>
+          <t>0103030203</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
@@ -1905,16 +1905,16 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0003000303</t>
+          <t>0302030003</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1957,16 +1957,20 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1980,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0203030103</t>
+          <t>0303020203</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2000,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -2013,16 +2017,16 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2030,7 +2034,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0300030303</t>
+          <t>0103030003</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2042,45 +2046,41 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0203000303</t>
+          <t>0300030303</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2100,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2121,22 +2121,22 @@
         <v>3</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0303020003</t>
+          <t>0303000203</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2183,13 +2183,13 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0302030203</t>
+          <t>0003000303</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2239,16 +2239,16 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0103030203</t>
+          <t>0303020003</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>3</v>
@@ -2295,16 +2295,20 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2312,7 +2316,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0003020303</t>
+          <t>0302030203</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2330,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2349,18 +2353,14 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0203010303</t>
+          <t>0003020203</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2407,13 +2407,13 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0202030003</t>
+          <t>0000030303</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2440,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2461,17 +2461,17 @@
         <v>4</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0000030303</t>
+          <t>0203020203</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2498,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2519,22 +2519,18 @@
         <v>4</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>2, 4</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2540,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0300030203</t>
+          <t>0203000203</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2556,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2577,26 +2573,22 @@
         <v>4</v>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2598,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0302030103</t>
+          <t>0002030203</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2649,7 +2641,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -2664,7 +2656,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0003000203</t>
+          <t>0001030303</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2701,18 +2693,18 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2714,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0303000103</t>
+          <t>0203000003</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2759,7 +2751,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2780,7 +2772,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0203020003</t>
+          <t>0301030203</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2817,18 +2809,18 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2830,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0003020203</t>
+          <t>0203020003</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2875,13 +2867,13 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2950,7 +2942,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0002030003</t>
+          <t>0103030103</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2968,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2977,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>4</v>
@@ -2987,7 +2979,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2996,11 +2988,7 @@
           <t>2, 8</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3008,7 +2996,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0203000003</t>
+          <t>0301030003</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3045,18 +3033,18 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3054,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0300030003</t>
+          <t>0300030203</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3084,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3105,11 +3093,15 @@
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -3124,7 +3116,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0102030303</t>
+          <t>3003030203</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3133,7 +3125,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -3142,39 +3134,43 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3182,7 +3178,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0103000303</t>
+          <t>0003000003</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3200,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3217,15 +3213,11 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -3240,7 +3232,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0103030103</t>
+          <t>0003000203</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3258,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3267,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>4</v>
@@ -3277,16 +3269,20 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3294,7 +3290,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0200030303</t>
+          <t>0303010203</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3306,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3327,26 +3323,22 @@
         <v>4</v>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3348,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0203020203</t>
+          <t>0202030003</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3374,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3393,14 +3385,18 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3406,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3003030003</t>
+          <t>0200030303</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3419,48 +3415,52 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0301030203</t>
+          <t>3003030003</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3486,39 +3486,39 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>4</v>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0003010303</t>
+          <t>0303000103</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3563,13 +3563,13 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0303010203</t>
+          <t>0300030003</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3596,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3617,22 +3617,22 @@
         <v>4</v>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3003030203</t>
+          <t>0303020103</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3660,43 +3660,39 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>4</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3704,7 +3700,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0002030203</t>
+          <t>0303010003</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3722,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3741,18 +3737,18 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3758,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0203000203</t>
+          <t>0103020303</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3799,13 +3795,13 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3820,7 +3816,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0201030303</t>
+          <t>0103000303</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3838,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3857,18 +3853,18 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3874,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0303020103</t>
+          <t>0003010303</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3896,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3915,13 +3911,13 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -3936,7 +3932,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0103020303</t>
+          <t>0302030103</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3973,18 +3969,18 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3990,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0003020003</t>
+          <t>0102030303</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4012,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -4031,18 +4027,18 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4048,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0301030003</t>
+          <t>0201030303</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4070,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -4089,13 +4085,13 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -4110,7 +4106,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0303010003</t>
+          <t>0002030003</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4147,18 +4143,18 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4164,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0003000003</t>
+          <t>0203010303</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4186,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4203,11 +4199,15 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0001030303</t>
+          <t>0003020003</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4259,18 +4259,18 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0102030203</t>
+          <t>0003000103</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4298,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>3</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4317,18 +4317,18 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0000030203</t>
+          <t>0200030003</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4379,13 +4379,13 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0203020103</t>
+          <t>0002030103</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4418,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4437,18 +4437,18 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0201030003</t>
+          <t>3002030303</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -4476,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4490,18 +4490,26 @@
       <c r="K72" t="n">
         <v>5</v>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -4516,7 +4524,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0201030203</t>
+          <t>0301030103</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4534,13 +4542,13 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4553,13 +4561,13 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -4574,7 +4582,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0103000203</t>
+          <t>0102030203</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4592,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4611,18 +4619,18 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4640,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0203010003</t>
+          <t>3003030103</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4641,7 +4649,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -4650,39 +4658,43 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>5</v>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>6, 8</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4690,7 +4702,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0102030003</t>
+          <t>0201030003</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4733,7 +4745,7 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -4748,7 +4760,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0103020203</t>
+          <t>0103010303</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4766,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4785,13 +4797,13 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -4806,7 +4818,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0103020003</t>
+          <t>0200030203</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4818,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -4830,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4839,22 +4851,26 @@
         <v>5</v>
       </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4880,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0003020103</t>
+          <t>0102030003</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4901,7 +4917,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
@@ -4912,7 +4928,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4938,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0200030003</t>
+          <t>0001030203</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4934,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4955,21 +4971,17 @@
         <v>5</v>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -4984,7 +4996,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0003000103</t>
+          <t>0103000203</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5002,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -5021,13 +5033,13 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -5042,7 +5054,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0002030103</t>
+          <t>0203000103</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5079,18 +5091,18 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5112,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0001030203</t>
+          <t>0100030303</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5112,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5133,11 +5145,15 @@
         <v>5</v>
       </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
@@ -5158,7 +5174,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0100030303</t>
+          <t>0201030203</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5170,19 +5186,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -5191,21 +5207,17 @@
         <v>5</v>
       </c>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -5220,7 +5232,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0203000103</t>
+          <t>0103020203</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5238,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -5257,13 +5269,13 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -5278,7 +5290,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0103010303</t>
+          <t>0203010003</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5321,7 +5333,7 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -5336,7 +5348,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3002030303</t>
+          <t>3003020303</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5377,7 +5389,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -5392,7 +5404,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5414,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0300030103</t>
+          <t>0203010203</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5414,19 +5426,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5435,26 +5447,22 @@
         <v>5</v>
       </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5472,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0303010103</t>
+          <t>0003010003</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5482,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5501,13 +5509,13 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -5522,7 +5530,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0101030303</t>
+          <t>0303010103</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5559,18 +5567,18 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5588,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0000030003</t>
+          <t>0103000003</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5592,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5613,22 +5621,22 @@
         <v>5</v>
       </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5646,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0003010003</t>
+          <t>0203020103</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5656,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5675,13 +5683,13 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -5696,7 +5704,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3003020303</t>
+          <t>0202030103</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5705,7 +5713,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -5714,10 +5722,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -5728,31 +5736,23 @@
       <c r="K93" t="n">
         <v>5</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0202030103</t>
+          <t>0001030003</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5780,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>3</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5799,13 +5799,13 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0301030103</t>
+          <t>0101030303</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5857,13 +5857,13 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3003030103</t>
+          <t>0003010203</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -5896,43 +5896,39 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>5</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr"/>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5940,7 +5936,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0003010203</t>
+          <t>3003000303</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5949,7 +5945,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -5958,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -5972,15 +5968,19 @@
       <c r="K97" t="n">
         <v>5</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr">
         <is>
           <t>2, 6</t>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0200030203</t>
+          <t>0103020003</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -6093,26 +6093,22 @@
         <v>5</v>
       </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3003000303</t>
+          <t>0000030003</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6131,10 +6127,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -6143,10 +6139,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -6154,27 +6150,23 @@
       <c r="K100" t="n">
         <v>5</v>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6184,7 +6176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0203010203</t>
+          <t>0003020103</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6202,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -6221,13 +6213,13 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -6242,7 +6234,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0103000003</t>
+          <t>0000030203</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6254,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -6266,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -6275,22 +6267,26 @@
         <v>5</v>
       </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6296,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0001030003</t>
+          <t>0300030103</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6312,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -6324,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -6333,17 +6329,21 @@
         <v>5</v>
       </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0003010103</t>
+          <t>0100030003</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6370,13 +6370,13 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6391,22 +6391,26 @@
         <v>6</v>
       </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6420,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0101030203</t>
+          <t>3003020003</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6425,7 +6429,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -6434,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -6448,23 +6452,31 @@
       <c r="K105" t="n">
         <v>6</v>
       </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6486,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3003000203</t>
+          <t>0003010103</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6483,7 +6495,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -6492,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6506,26 +6518,18 @@
       <c r="K106" t="n">
         <v>6</v>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -6540,7 +6544,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0001030103</t>
+          <t>3003000203</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6549,7 +6553,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -6558,13 +6562,13 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6572,23 +6576,31 @@
       <c r="K107" t="n">
         <v>6</v>
       </c>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6610,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0003003003</t>
+          <t>3002030203</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6616,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6632,25 +6644,29 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6676,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3003010303</t>
+          <t>0101030003</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6669,7 +6685,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -6678,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6692,31 +6708,23 @@
       <c r="K109" t="n">
         <v>6</v>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6734,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0103000103</t>
+          <t>3002030003</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6735,7 +6743,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -6744,13 +6752,13 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6758,23 +6766,31 @@
       <c r="K110" t="n">
         <v>6</v>
       </c>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6784,7 +6800,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3000030303</t>
+          <t>3001030303</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -6796,13 +6812,13 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -6821,13 +6837,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>1</t>
@@ -6850,7 +6866,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3003020203</t>
+          <t>0200030103</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -6859,10 +6875,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -6871,10 +6887,10 @@
         <v>2</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6882,31 +6898,27 @@
       <c r="K112" t="n">
         <v>6</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6928,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3003020003</t>
+          <t>0103010003</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6925,7 +6937,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -6934,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6948,26 +6960,18 @@
       <c r="K113" t="n">
         <v>6</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -6982,7 +6986,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0101030003</t>
+          <t>0001030103</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7019,7 +7023,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P114" t="inlineStr"/>
@@ -7040,7 +7044,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0103010003</t>
+          <t>3000030303</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7049,22 +7053,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -7072,23 +7076,31 @@
       <c r="K115" t="n">
         <v>6</v>
       </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7110,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3001030303</t>
+          <t>0102030103</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7107,7 +7119,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -7116,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -7130,26 +7142,18 @@
       <c r="K116" t="n">
         <v>6</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -7164,7 +7168,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0103010203</t>
+          <t>0203003003</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7173,7 +7177,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -7182,10 +7186,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -7196,18 +7200,26 @@
       <c r="K117" t="n">
         <v>6</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -7222,7 +7234,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0200030103</t>
+          <t>3003020203</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7231,10 +7243,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -7243,10 +7255,10 @@
         <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -7254,27 +7266,31 @@
       <c r="K118" t="n">
         <v>6</v>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7300,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0203003003</t>
+          <t>3003010303</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7318,24 +7334,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -7350,7 +7366,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0201030103</t>
+          <t>0103000103</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7368,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>3</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -7387,18 +7403,18 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7408,7 +7424,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3002030003</t>
+          <t>3003000003</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7426,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -7447,11 +7463,7 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
           <t>1</t>
@@ -7459,12 +7471,12 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7486,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3003000003</t>
+          <t>0103010203</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7483,7 +7495,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -7492,13 +7504,13 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -7506,22 +7518,18 @@
       <c r="K122" t="n">
         <v>6</v>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -7536,7 +7544,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0102030103</t>
+          <t>0100030203</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7548,13 +7556,13 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7569,17 +7577,21 @@
         <v>6</v>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -7594,7 +7606,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>0203010103</t>
+          <t>0103020103</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7637,7 +7649,7 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -7652,7 +7664,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0103020103</t>
+          <t>0101030203</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7689,18 +7701,18 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7722,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0000030103</t>
+          <t>0203010103</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7722,19 +7734,19 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -7743,26 +7755,22 @@
         <v>6</v>
       </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7780,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3002030203</t>
+          <t>0000030103</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7781,22 +7789,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -7804,26 +7812,22 @@
       <c r="K127" t="n">
         <v>6</v>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -7838,7 +7842,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0100030203</t>
+          <t>0003003003</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -7847,22 +7851,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -7870,27 +7874,27 @@
       <c r="K128" t="n">
         <v>6</v>
       </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7904,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>0100030003</t>
+          <t>0201030103</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -7912,19 +7916,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -7933,21 +7937,17 @@
         <v>6</v>
       </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0101030103</t>
+          <t>0030030303</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7971,22 +7971,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -7994,18 +7994,26 @@
       <c r="K130" t="n">
         <v>7</v>
       </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -8020,7 +8028,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0100030103</t>
+          <t>3001030203</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8029,10 +8037,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -8041,10 +8049,10 @@
         <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -8052,22 +8060,26 @@
       <c r="K131" t="n">
         <v>7</v>
       </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -8082,7 +8094,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0103003003</t>
+          <t>3003010203</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8100,13 +8112,13 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -8116,24 +8128,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -8148,7 +8160,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3003010203</t>
+          <t>0103010103</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8157,7 +8169,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -8166,13 +8178,13 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -8180,26 +8192,18 @@
       <c r="K133" t="n">
         <v>7</v>
       </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -8214,7 +8218,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3000030003</t>
+          <t>0101030103</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8223,19 +8227,19 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -8246,23 +8250,15 @@
       <c r="K134" t="n">
         <v>7</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
         <is>
           <t>2, 4, 8</t>
@@ -8280,7 +8276,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3001030003</t>
+          <t>3002030103</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8298,13 +8294,13 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -8321,7 +8317,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -8331,7 +8327,7 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -8412,7 +8408,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3002030103</t>
+          <t>0100030103</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8421,10 +8417,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -8433,10 +8429,10 @@
         <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -8444,26 +8440,22 @@
       <c r="K137" t="n">
         <v>7</v>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -8478,7 +8470,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3003010003</t>
+          <t>3003000103</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8519,7 +8511,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -8544,7 +8536,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>0030030303</t>
+          <t>3000030203</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8556,13 +8548,13 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -8578,19 +8570,23 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -8610,7 +8606,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>0103010103</t>
+          <t>0103003003</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8619,7 +8615,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -8628,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -8642,15 +8638,23 @@
       <c r="K140" t="n">
         <v>7</v>
       </c>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="Q140" t="inlineStr">
         <is>
           <t>2, 6, 8</t>
@@ -8668,7 +8672,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3000030203</t>
+          <t>3001030003</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8680,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8692,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -8705,15 +8709,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3003000103</t>
+          <t>3000030003</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8750,13 +8750,13 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -8775,13 +8775,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>1</t>
@@ -8789,12 +8789,12 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3001030203</t>
+          <t>3003010003</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8822,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -8845,7 +8845,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -8855,12 +8855,12 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3000030103</t>
+          <t>3030030303</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -8888,13 +8888,13 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -8913,19 +8913,15 @@
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -8940,7 +8936,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3001030103</t>
+          <t>0030030003</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -8952,13 +8948,13 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -8974,19 +8970,19 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -9006,7 +9002,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0030030203</t>
+          <t>3003010103</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9018,19 +9014,19 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -9040,33 +9036,29 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9068,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3003010103</t>
+          <t>3000030103</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9088,13 +9080,13 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -9113,11 +9105,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -9127,12 +9123,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9278,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3030030303</t>
+          <t>0030030203</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9291,19 +9287,19 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -9316,19 +9312,23 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>0030030003</t>
+          <t>3001030103</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9360,13 +9360,13 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -9382,19 +9382,19 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>0030030103</t>
+          <t>3030030003</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -9493,19 +9493,19 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -9518,23 +9518,19 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
@@ -9624,7 +9620,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>0020030003</t>
+          <t>3030030203</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -9633,10 +9629,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -9645,10 +9641,10 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -9658,28 +9654,28 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -9694,7 +9690,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3030030203</t>
+          <t>0010030003</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -9703,10 +9699,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -9715,10 +9711,10 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -9728,28 +9724,28 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -9764,7 +9760,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>0010030003</t>
+          <t>0020030003</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -9834,7 +9830,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3030030003</t>
+          <t>0030030103</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -9843,19 +9839,19 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -9868,19 +9864,23 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>0010030103</t>
+          <t>3030030103</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -9909,19 +9909,19 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -9934,23 +9934,23 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>0020030103</t>
+          <t>0010030103</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3030030103</t>
+          <t>0020030103</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10049,19 +10049,19 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -10074,23 +10074,23 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">

--- a/generated/oliva1992.xlsx
+++ b/generated/oliva1992.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,75 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>RM1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RM2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RAB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RADB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RC1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>RC2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RC3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Complexitat</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RM1 posicions</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RM2 posicions</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RAB posicions</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RADB posicions</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>RC1 posicions</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RC2 posicions</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>RC3 posicions</t>
         </is>
@@ -476,7 +526,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3003010203</t>
+          <t>0303030303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,8 +543,28 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -502,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3003020203</t>
+          <t>0303030003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,8 +589,32 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3003020303</t>
+          <t>0203030303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +639,32 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0201030003</t>
+          <t>0303030203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,8 +689,32 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3002030303</t>
+          <t>0003030303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,8 +739,32 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -606,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3002030203</t>
+          <t>0203030203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,8 +789,32 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,7 +822,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0202030103</t>
+          <t>0303020303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -649,8 +839,36 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -658,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0201030103</t>
+          <t>0203030003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -675,8 +893,36 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -684,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0020030103</t>
+          <t>0103030303</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -701,8 +947,36 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -710,7 +984,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3001030203</t>
+          <t>0003030203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -727,8 +1001,36 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,7 +1038,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0301030003</t>
+          <t>0003030003</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -753,8 +1055,32 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -762,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3030030003</t>
+          <t>0303000303</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -779,8 +1105,36 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -788,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0103030003</t>
+          <t>0302030303</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -805,8 +1159,36 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -814,7 +1196,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0203000003</t>
+          <t>0303030103</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -831,8 +1213,36 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -840,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0100030203</t>
+          <t>0303000003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -857,8 +1267,36 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -866,7 +1304,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0303010203</t>
+          <t>0003030103</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -883,8 +1321,36 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -892,7 +1358,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0103010103</t>
+          <t>0303020203</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -909,8 +1375,36 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -918,7 +1412,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3003020103</t>
+          <t>0103030203</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -935,8 +1429,36 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -944,7 +1466,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0303030203</t>
+          <t>0002030303</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -961,8 +1483,40 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -970,7 +1524,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0001030203</t>
+          <t>0003000303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -987,8 +1541,36 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -996,7 +1578,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0002030003</t>
+          <t>0303020003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1013,8 +1595,40 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1022,7 +1636,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0100030303</t>
+          <t>0302030003</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1039,8 +1653,40 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1048,7 +1694,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0300030003</t>
+          <t>0202030303</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1065,8 +1711,36 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1074,7 +1748,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0003030203</t>
+          <t>0303000203</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1091,8 +1765,40 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1100,7 +1806,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0302030203</t>
+          <t>0203030103</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1117,8 +1823,36 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1126,7 +1860,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0303020003</t>
+          <t>0303010303</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1143,8 +1877,40 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1152,7 +1918,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0103020203</t>
+          <t>0003020303</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1169,8 +1935,40 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1178,7 +1976,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0101030103</t>
+          <t>0301030303</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1195,8 +1993,40 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1204,7 +2034,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0303030003</t>
+          <t>0103030003</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1221,8 +2051,36 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1230,7 +2088,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0102030303</t>
+          <t>0300030303</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1242,13 +2100,45 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1256,7 +2146,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0103000103</t>
+          <t>0203020303</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1273,8 +2163,36 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1282,7 +2200,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0203003003</t>
+          <t>3003030303</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1291,7 +2209,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1299,8 +2217,40 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1308,7 +2258,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3002030103</t>
+          <t>0302030203</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1325,8 +2275,36 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1334,7 +2312,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0103003003</t>
+          <t>0203000303</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1351,8 +2329,40 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1360,7 +2370,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3003030303</t>
+          <t>0103000303</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1377,8 +2387,40 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1386,7 +2428,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0303020203</t>
+          <t>0303010203</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1403,8 +2445,40 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1412,7 +2486,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0102030203</t>
+          <t>0000030303</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1424,13 +2498,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1438,7 +2544,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0203000203</t>
+          <t>0300030203</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1450,13 +2556,49 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1464,7 +2606,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0002030203</t>
+          <t>0201030303</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1481,8 +2623,40 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1490,7 +2664,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0000030203</t>
+          <t>0003010303</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1507,8 +2681,40 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1516,7 +2722,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0020030203</t>
+          <t>0203010303</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1533,8 +2739,40 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1542,7 +2780,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0003000303</t>
+          <t>0102030303</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1559,8 +2797,40 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1568,7 +2838,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0302030103</t>
+          <t>0002030003</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1585,8 +2855,40 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1594,7 +2896,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0030030003</t>
+          <t>3003030003</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1603,7 +2905,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1611,8 +2913,40 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1620,7 +2954,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0020030003</t>
+          <t>0203020003</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1637,8 +2971,40 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1646,7 +3012,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0303000003</t>
+          <t>0003020203</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1663,8 +3029,40 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1672,7 +3070,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0003000003</t>
+          <t>0303020103</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1689,8 +3087,40 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1698,7 +3128,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3003010303</t>
+          <t>0003000003</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1715,8 +3145,36 @@
       <c r="F49" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1724,7 +3182,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0003020103</t>
+          <t>0301030203</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1741,8 +3199,40 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1750,7 +3240,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0301030203</t>
+          <t>0203000003</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1767,8 +3257,40 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1776,7 +3298,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0303030103</t>
+          <t>0303010003</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1793,8 +3315,40 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1802,7 +3356,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3003030003</t>
+          <t>0200030303</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1814,13 +3368,49 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1828,7 +3418,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0030030303</t>
+          <t>0202030203</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1845,8 +3435,36 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1854,7 +3472,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0303000203</t>
+          <t>0203020203</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1871,8 +3489,36 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1880,7 +3526,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3003020003</t>
+          <t>0003020003</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1897,8 +3543,40 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1906,7 +3584,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0203030003</t>
+          <t>0203000203</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1923,8 +3601,40 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1932,7 +3642,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3002030003</t>
+          <t>0002030203</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1949,8 +3659,40 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1958,7 +3700,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0302030003</t>
+          <t>0103020303</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1975,8 +3717,40 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1984,7 +3758,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0303000303</t>
+          <t>0303000103</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2001,8 +3775,40 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2010,7 +3816,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0203000303</t>
+          <t>0003000203</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2027,8 +3833,40 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2036,7 +3874,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0300030203</t>
+          <t>3003030203</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2045,7 +3883,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2053,8 +3891,44 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2062,7 +3936,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0200030003</t>
+          <t>0302030103</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2079,8 +3953,40 @@
       <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2088,7 +3994,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0202030203</t>
+          <t>0001030303</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2105,8 +4011,40 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2114,7 +4052,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0203020303</t>
+          <t>0300030003</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2126,13 +4064,45 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2140,7 +4110,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0303030303</t>
+          <t>0103030103</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2157,8 +4127,36 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2166,7 +4164,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0002030103</t>
+          <t>0301030003</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2183,8 +4181,40 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2192,7 +4222,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3000030003</t>
+          <t>0202030003</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2209,8 +4239,40 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2218,7 +4280,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3003010003</t>
+          <t>0003020103</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2235,8 +4297,40 @@
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2244,7 +4338,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0202030303</t>
+          <t>0300030103</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2256,13 +4350,49 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2270,7 +4400,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0301030103</t>
+          <t>0203000103</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2287,8 +4417,40 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2296,7 +4458,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0103010203</t>
+          <t>0002030103</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2313,8 +4475,40 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2322,7 +4516,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0000030003</t>
+          <t>0103020003</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2339,8 +4533,40 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2348,7 +4574,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0203010303</t>
+          <t>0203010003</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2365,8 +4591,40 @@
       <c r="F74" t="n">
         <v>0</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2374,7 +4632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3003000303</t>
+          <t>0103020203</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2391,8 +4649,40 @@
       <c r="F75" t="n">
         <v>0</v>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>5</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2400,7 +4690,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0003010003</t>
+          <t>0303010103</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2417,8 +4707,40 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2426,7 +4748,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0203020003</t>
+          <t>0001030003</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2443,8 +4765,40 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2452,7 +4806,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0203030303</t>
+          <t>0102030003</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2469,8 +4823,40 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2478,7 +4864,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0103020003</t>
+          <t>0202030103</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2495,8 +4881,40 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2504,7 +4922,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3003000203</t>
+          <t>0200030003</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2516,13 +4934,49 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2530,7 +4984,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0103000203</t>
+          <t>0001030203</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2547,8 +5001,40 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>5</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2556,7 +5042,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0003000203</t>
+          <t>0200030203</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2568,13 +5054,49 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2582,7 +5104,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0303010003</t>
+          <t>3003020303</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2591,7 +5113,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2599,8 +5121,48 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2608,7 +5170,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0010030203</t>
+          <t>0003010203</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2625,8 +5187,40 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2634,7 +5228,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0100030003</t>
+          <t>3003030103</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2643,7 +5237,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2651,8 +5245,44 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2660,7 +5290,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0003030103</t>
+          <t>0303003003</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2669,7 +5299,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -2677,8 +5307,44 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2686,7 +5352,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0020030303</t>
+          <t>0003000103</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2703,8 +5369,40 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>5</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2712,7 +5410,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3030030103</t>
+          <t>0201030203</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2729,8 +5427,40 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2738,7 +5468,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0100030103</t>
+          <t>3003000303</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2747,7 +5477,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2755,8 +5485,44 @@
       <c r="F89" t="n">
         <v>0</v>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2764,7 +5530,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0103030203</t>
+          <t>0103000003</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2781,8 +5547,40 @@
       <c r="F90" t="n">
         <v>0</v>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>5</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2790,7 +5588,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0201030303</t>
+          <t>0203010203</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2807,8 +5605,40 @@
       <c r="F91" t="n">
         <v>0</v>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2816,7 +5646,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0203020203</t>
+          <t>0103010303</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2833,8 +5663,40 @@
       <c r="F92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2842,7 +5704,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3003030203</t>
+          <t>0201030003</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2859,8 +5721,40 @@
       <c r="F93" t="n">
         <v>0</v>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2868,7 +5762,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0002030303</t>
+          <t>3002030303</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2877,7 +5771,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2885,8 +5779,48 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2894,7 +5828,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3030030303</t>
+          <t>0100030303</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2906,13 +5840,49 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2920,7 +5890,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0203030203</t>
+          <t>0000030203</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2932,13 +5902,49 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2946,7 +5952,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3001030103</t>
+          <t>0003010003</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2963,8 +5969,40 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2972,7 +6010,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0203010203</t>
+          <t>0000030003</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2984,13 +6022,45 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2998,7 +6068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0030030203</t>
+          <t>0103000203</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3015,8 +6085,40 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3024,7 +6126,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0101030003</t>
+          <t>0301030103</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3041,8 +6143,40 @@
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3050,7 +6184,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0103020103</t>
+          <t>0102030203</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3067,8 +6201,40 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>5</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3076,7 +6242,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0003000103</t>
+          <t>0203020103</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3093,8 +6259,40 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3102,7 +6300,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0000030303</t>
+          <t>0101030303</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3119,8 +6317,40 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3128,7 +6358,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0103010303</t>
+          <t>0102030103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3145,8 +6375,40 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3154,7 +6416,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0103000003</t>
+          <t>0201030103</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3171,8 +6433,40 @@
       <c r="F105" t="n">
         <v>0</v>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3180,7 +6474,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0303010303</t>
+          <t>3003020003</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3189,7 +6483,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -3197,8 +6491,48 @@
       <c r="F106" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3206,7 +6540,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0300030103</t>
+          <t>0003003003</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3215,7 +6549,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -3223,8 +6557,44 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3232,7 +6602,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0303020303</t>
+          <t>0100030003</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3244,13 +6614,49 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3275,8 +6681,40 @@
       <c r="F109" t="n">
         <v>0</v>
       </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>6</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3284,7 +6722,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0001030003</t>
+          <t>3003000203</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3293,7 +6731,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -3301,8 +6739,48 @@
       <c r="F110" t="n">
         <v>0</v>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3310,7 +6788,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0003010303</t>
+          <t>0101030003</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3327,8 +6805,40 @@
       <c r="F111" t="n">
         <v>0</v>
       </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>6</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3336,7 +6846,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0003020303</t>
+          <t>3001030303</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3345,7 +6855,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3353,8 +6863,48 @@
       <c r="F112" t="n">
         <v>0</v>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3362,7 +6912,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0103030103</t>
+          <t>0001030103</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3379,8 +6929,40 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>6</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3388,7 +6970,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0203000103</t>
+          <t>0000030103</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3400,13 +6982,49 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>6</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3414,7 +7032,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0003003003</t>
+          <t>3002030203</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3423,7 +7041,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3431,8 +7049,48 @@
       <c r="F115" t="n">
         <v>0</v>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3440,7 +7098,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0003010103</t>
+          <t>0103020103</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3457,8 +7115,40 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>6</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3466,7 +7156,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0300030303</t>
+          <t>0103010203</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3483,8 +7173,40 @@
       <c r="F117" t="n">
         <v>0</v>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>6</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3492,7 +7214,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0010030303</t>
+          <t>3000030303</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3501,16 +7223,56 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3518,7 +7280,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0001030103</t>
+          <t>0203003003</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3527,7 +7289,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3535,8 +7297,48 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3544,7 +7346,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0103030303</t>
+          <t>0101030203</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3561,8 +7363,40 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>3</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>6</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3570,7 +7404,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>0200030103</t>
+          <t>3003010303</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3579,7 +7413,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -3587,8 +7421,48 @@
       <c r="F121" t="n">
         <v>0</v>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3596,7 +7470,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3000030303</t>
+          <t>3003020203</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3605,7 +7479,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -3613,8 +7487,48 @@
       <c r="F122" t="n">
         <v>0</v>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3622,7 +7536,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3030030203</t>
+          <t>0103000103</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3639,8 +7553,40 @@
       <c r="F123" t="n">
         <v>0</v>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>6</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3648,7 +7594,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>0103020303</t>
+          <t>0003010103</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3665,8 +7611,40 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>6</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3674,7 +7652,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3003030103</t>
+          <t>0200030103</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3686,13 +7664,49 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>6</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3700,7 +7714,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0003030003</t>
+          <t>3003000003</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3709,7 +7723,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -3717,8 +7731,44 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3726,7 +7776,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>0101030303</t>
+          <t>0100030203</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3738,13 +7788,49 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3752,7 +7838,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0200030203</t>
+          <t>0103010003</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3769,8 +7855,40 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>6</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3778,7 +7896,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>0202030003</t>
+          <t>3002030003</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3787,7 +7905,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -3795,8 +7913,48 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3804,7 +7962,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0101030203</t>
+          <t>0030030303</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3813,16 +7971,56 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3830,7 +8028,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0003030303</t>
+          <t>0101030103</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3847,8 +8045,40 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>7</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3856,7 +8086,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0001030303</t>
+          <t>0103010103</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3873,8 +8103,40 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>7</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3882,7 +8144,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>0203030103</t>
+          <t>3003010003</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3891,7 +8153,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -3899,8 +8161,48 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3908,7 +8210,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0303010103</t>
+          <t>3002030103</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3917,7 +8219,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -3925,8 +8227,48 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3934,7 +8276,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3001030003</t>
+          <t>3003020103</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3943,7 +8285,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -3951,8 +8293,48 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3960,7 +8342,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3000030103</t>
+          <t>0100030103</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3972,13 +8354,49 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>7</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3986,7 +8404,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>0203020103</t>
+          <t>3001030203</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3995,7 +8413,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -4003,8 +8421,48 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4012,7 +8470,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3003000003</t>
+          <t>3000030203</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4021,16 +8479,60 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4038,7 +8540,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>0302030303</t>
+          <t>3003000103</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4047,7 +8549,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -4055,8 +8557,48 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4064,7 +8606,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>0103010003</t>
+          <t>3001030003</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4073,7 +8615,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -4081,8 +8623,48 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>7</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4090,7 +8672,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>0102030103</t>
+          <t>3000030003</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4099,16 +8681,56 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>7</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4116,7 +8738,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0003020003</t>
+          <t>0103003003</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4125,7 +8747,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -4133,8 +8755,48 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>7</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4142,7 +8804,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>0303000103</t>
+          <t>3003010203</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4151,7 +8813,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -4159,8 +8821,48 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>7</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4168,7 +8870,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>0103000303</t>
+          <t>3001030103</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4177,7 +8879,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -4185,8 +8887,48 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4194,7 +8936,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3000030203</t>
+          <t>3030030303</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4203,16 +8945,56 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4220,7 +9002,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0203010003</t>
+          <t>0030030003</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4229,16 +9011,56 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>8</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4246,7 +9068,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>0030030103</t>
+          <t>0020030303</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4255,16 +9077,60 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4272,7 +9138,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>0010030003</t>
+          <t>3003010103</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4281,7 +9147,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -4289,8 +9155,48 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>8</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4298,7 +9204,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>0301030303</t>
+          <t>0010030303</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4307,16 +9213,60 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>8</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4324,7 +9274,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>0201030203</t>
+          <t>3000030103</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4333,16 +9283,60 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>8</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4350,7 +9344,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>0010030103</t>
+          <t>0030030203</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4359,16 +9353,60 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>8</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4376,7 +9414,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>0303003003</t>
+          <t>0010030203</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4385,16 +9423,60 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4402,7 +9484,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>0000030103</t>
+          <t>3030030003</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4411,16 +9493,56 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4428,7 +9550,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3001030303</t>
+          <t>3030030203</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4437,16 +9559,60 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4454,7 +9620,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>0102030003</t>
+          <t>0010030003</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4463,16 +9629,60 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4480,7 +9690,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>0303020103</t>
+          <t>0020030203</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4489,16 +9699,60 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4506,7 +9760,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>0003020203</t>
+          <t>0030030103</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4515,16 +9769,60 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4532,7 +9830,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>0003010203</t>
+          <t>0020030003</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4541,16 +9839,60 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4558,7 +9900,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3003000103</t>
+          <t>3030030103</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4567,16 +9909,60 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>10</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4584,7 +9970,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3003010103</t>
+          <t>0010030103</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4593,16 +9979,60 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>10</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4610,7 +10040,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>0200030303</t>
+          <t>0020030103</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4619,16 +10049,60 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>10</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1992.xlsx
+++ b/generated/oliva1992.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0303030203</t>
+          <t>0003030303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0003030303</t>
+          <t>0303030203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0203030203</t>
+          <t>0003030003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -822,7 +822,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0303020303</t>
+          <t>0003030203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -859,16 +859,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0203030003</t>
+          <t>0302030303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -913,16 +913,16 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0103030303</t>
+          <t>0303000303</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -965,18 +965,18 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0003030203</t>
+          <t>0303020303</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -1021,16 +1021,16 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0003030003</t>
+          <t>0303030103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1073,11 +1073,15 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1088,7 +1092,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0303000303</t>
+          <t>0203030203</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1106,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1123,18 +1127,14 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0302030303</t>
+          <t>0103030303</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -1179,16 +1179,16 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0303030103</t>
+          <t>0203030003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1233,7 +1233,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0303000003</t>
+          <t>0002030303</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1285,16 +1285,20 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0003030103</t>
+          <t>0302030003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1328,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
@@ -1341,16 +1345,20 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1358,7 +1366,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0303020203</t>
+          <t>0103030003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1376,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1395,16 +1403,16 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1412,7 +1420,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0103030203</t>
+          <t>0303010303</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1430,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1439,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1449,16 +1457,20 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1466,7 +1478,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0002030303</t>
+          <t>0301030303</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1509,7 +1521,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1636,7 +1648,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0302030003</t>
+          <t>0303020203</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1654,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1673,18 +1685,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0202030303</t>
+          <t>0302030203</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1731,7 +1739,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1748,7 +1756,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0303000203</t>
+          <t>0203020303</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1766,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1785,15 +1793,11 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
           <t>6</t>
@@ -1806,7 +1810,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0203030103</t>
+          <t>0202030303</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1830,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
@@ -1843,16 +1847,16 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1860,7 +1864,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0303010303</t>
+          <t>0300030303</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1872,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1893,22 +1897,22 @@
         <v>3</v>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1922,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0003020303</t>
+          <t>0303000203</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1955,13 +1959,13 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -1976,7 +1980,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0301030303</t>
+          <t>0003030103</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2000,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -2013,20 +2017,16 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0103030003</t>
+          <t>3003030303</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2066,18 +2066,22 @@
       <c r="K30" t="n">
         <v>3</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0300030303</t>
+          <t>0203000303</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2100,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2121,22 +2125,22 @@
         <v>3</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2150,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0203020303</t>
+          <t>0003020303</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2164,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2183,11 +2187,15 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
           <t>6</t>
@@ -2200,7 +2208,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3003030303</t>
+          <t>0303000003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2209,7 +2217,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2221,36 +2229,32 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>3</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2258,7 +2262,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0302030203</t>
+          <t>0103030203</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2282,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>3</v>
@@ -2295,16 +2299,16 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2312,7 +2316,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0203000303</t>
+          <t>0203030103</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2330,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2339,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>3</v>
@@ -2349,20 +2353,16 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0103000303</t>
+          <t>0301030003</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2407,18 +2407,18 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0303010203</t>
+          <t>0303000103</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2465,13 +2465,13 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0000030303</t>
+          <t>0303020103</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2498,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2519,22 +2519,22 @@
         <v>4</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0300030203</t>
+          <t>0002030003</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2577,21 +2577,17 @@
         <v>4</v>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2606,7 +2602,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0201030303</t>
+          <t>0003010303</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2624,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2643,18 +2639,18 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2660,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0003010303</t>
+          <t>0003020203</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2682,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2701,13 +2697,13 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2722,7 +2718,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0203010303</t>
+          <t>0103020303</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2765,7 +2761,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -2780,7 +2776,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0102030303</t>
+          <t>0300030003</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2792,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2813,17 +2809,17 @@
         <v>4</v>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2838,7 +2834,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0002030003</t>
+          <t>0202030003</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2856,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2875,13 +2871,13 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2896,7 +2892,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3003030003</t>
+          <t>0000030303</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2905,10 +2901,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2917,36 +2913,36 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2954,7 +2950,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0203020003</t>
+          <t>0102030303</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2991,18 +2987,18 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3008,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0003020203</t>
+          <t>0203000203</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3049,13 +3045,13 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -3070,7 +3066,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0303020103</t>
+          <t>0003000003</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3088,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3105,15 +3101,11 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -3128,7 +3120,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0003000003</t>
+          <t>3003030203</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3137,7 +3129,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -3146,35 +3138,43 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0301030203</t>
+          <t>0103030103</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3206,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>4</v>
@@ -3219,20 +3219,16 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3240,7 +3236,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0203000003</t>
+          <t>0302030103</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3258,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3277,18 +3273,18 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3294,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0303010003</t>
+          <t>0200030303</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3310,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3322,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3331,22 +3327,26 @@
         <v>4</v>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0200030303</t>
+          <t>0203000003</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3389,11 +3389,7 @@
         <v>4</v>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
@@ -3403,12 +3399,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3414,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0202030203</t>
+          <t>0300030203</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3430,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3451,15 +3447,23 @@
         <v>4</v>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr">
         <is>
           <t>4</t>
@@ -3472,7 +3476,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0203020203</t>
+          <t>0203010303</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3490,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3509,11 +3513,15 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
           <t>6</t>
@@ -3526,7 +3534,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0003020003</t>
+          <t>0202030203</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3544,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3563,18 +3571,14 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3588,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0203000203</t>
+          <t>0002030203</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3621,18 +3625,18 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0002030203</t>
+          <t>0303010003</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3660,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3679,18 +3683,18 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3704,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0103020303</t>
+          <t>0103000303</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3718,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3737,13 +3741,13 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -3758,7 +3762,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0303000103</t>
+          <t>0003020003</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3795,13 +3799,13 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3816,7 +3820,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0003000203</t>
+          <t>0203020003</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3834,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3853,13 +3857,13 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -3874,7 +3878,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3003030203</t>
+          <t>0003000203</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3883,7 +3887,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3895,22 +3899,18 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>4</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
@@ -3918,17 +3918,17 @@
           <t>7</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0302030103</t>
+          <t>0301030203</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3979,7 +3979,7 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0001030303</t>
+          <t>0201030303</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -4031,13 +4031,13 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0300030003</t>
+          <t>0001030303</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4085,17 +4085,17 @@
         <v>4</v>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0103030103</t>
+          <t>0303010203</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4134,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>4</v>
@@ -4147,16 +4147,20 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4164,7 +4168,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0301030003</t>
+          <t>3003030003</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4173,7 +4177,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -4182,39 +4186,39 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>4</v>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>4, 8</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4222,7 +4226,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0202030003</t>
+          <t>0203020203</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4240,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4259,18 +4263,14 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0003020103</t>
+          <t>3003020303</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -4298,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4312,18 +4312,26 @@
       <c r="K69" t="n">
         <v>5</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -4338,7 +4346,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0300030103</t>
+          <t>0303003003</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4347,19 +4355,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -4370,27 +4378,27 @@
       <c r="K70" t="n">
         <v>5</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4408,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0203000103</t>
+          <t>0003010003</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4418,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4437,13 +4445,13 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -4458,7 +4466,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0002030103</t>
+          <t>0203020103</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4476,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4495,18 +4503,18 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4524,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0103020003</t>
+          <t>0202030103</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4534,13 +4542,13 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4553,18 +4561,18 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4582,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0203010003</t>
+          <t>0301030103</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4611,18 +4619,18 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4640,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0103020203</t>
+          <t>0100030303</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4644,19 +4652,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4665,22 +4673,26 @@
         <v>5</v>
       </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4760,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0001030003</t>
+          <t>0003010203</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4766,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4785,18 +4797,18 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4818,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0102030003</t>
+          <t>0000030203</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4818,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4839,17 +4851,21 @@
         <v>5</v>
       </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -4864,7 +4880,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0202030103</t>
+          <t>0103020203</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4901,18 +4917,18 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4938,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0200030003</t>
+          <t>3003000303</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4931,19 +4947,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -4954,27 +4970,27 @@
       <c r="K80" t="n">
         <v>5</v>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4984,7 +5000,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0001030203</t>
+          <t>0200030003</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4996,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5017,17 +5033,21 @@
         <v>5</v>
       </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -5042,7 +5062,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0200030203</t>
+          <t>0102030203</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5054,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5075,21 +5095,17 @@
         <v>5</v>
       </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -5104,7 +5120,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3003020303</t>
+          <t>0103020003</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5113,7 +5129,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -5122,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -5136,26 +5152,18 @@
       <c r="K83" t="n">
         <v>5</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -5170,7 +5178,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0003010203</t>
+          <t>0103000203</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5207,7 +5215,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
@@ -5228,7 +5236,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3003030103</t>
+          <t>0201030203</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5237,7 +5245,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -5246,43 +5254,39 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>5</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5290,7 +5294,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0303003003</t>
+          <t>0003000103</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5299,7 +5303,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -5308,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5322,22 +5326,18 @@
       <c r="K86" t="n">
         <v>5</v>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
+      <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0003000103</t>
+          <t>0103010303</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5370,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5389,13 +5389,13 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0201030203</t>
+          <t>0001030003</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5428,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>3</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5447,13 +5447,13 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3003000303</t>
+          <t>0101030303</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -5500,27 +5500,23 @@
       <c r="K89" t="n">
         <v>5</v>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5526,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0103000003</t>
+          <t>0300030103</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5542,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -5554,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5563,22 +5559,26 @@
         <v>5</v>
       </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0203010203</t>
+          <t>0203000103</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5606,13 +5606,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5625,13 +5625,13 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0103010303</t>
+          <t>0102030003</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5683,18 +5683,18 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0201030003</t>
+          <t>0003020103</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5741,18 +5741,18 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3002030303</t>
+          <t>0103000003</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -5783,10 +5783,10 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5794,31 +5794,23 @@
       <c r="K94" t="n">
         <v>5</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5820,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0100030303</t>
+          <t>0203010203</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5840,19 +5832,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5861,26 +5853,22 @@
         <v>5</v>
       </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5878,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0000030203</t>
+          <t>0203010003</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5902,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -5923,26 +5911,22 @@
         <v>5</v>
       </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5936,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0003010003</t>
+          <t>0201030003</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5970,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5989,18 +5973,18 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6010,7 +5994,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0000030003</t>
+          <t>0002030103</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6022,19 +6006,19 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -6043,17 +6027,17 @@
         <v>5</v>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -6068,7 +6052,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0103000203</t>
+          <t>3003030103</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6077,7 +6061,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -6086,39 +6070,43 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>5</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -6126,7 +6114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0301030103</t>
+          <t>3002030303</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6135,7 +6123,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -6144,13 +6132,13 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -6158,18 +6146,26 @@
       <c r="K100" t="n">
         <v>5</v>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -6184,7 +6180,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0102030203</t>
+          <t>0001030203</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6202,13 +6198,13 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -6221,13 +6217,13 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -6242,7 +6238,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0203020103</t>
+          <t>0200030203</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6254,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6275,22 +6271,26 @@
         <v>5</v>
       </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0101030303</t>
+          <t>0000030003</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6312,19 +6312,19 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -6333,17 +6333,17 @@
         <v>5</v>
       </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0102030103</t>
+          <t>3003020203</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -6376,13 +6376,13 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -6390,23 +6390,31 @@
       <c r="K104" t="n">
         <v>6</v>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6424,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0201030103</t>
+          <t>0200030103</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6428,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6449,11 +6457,15 @@
         <v>6</v>
       </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P105" t="inlineStr"/>
@@ -6474,7 +6486,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3003020003</t>
+          <t>0001030103</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6483,7 +6495,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -6492,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6506,31 +6518,23 @@
       <c r="K106" t="n">
         <v>6</v>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6544,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0003003003</t>
+          <t>0100030203</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6549,22 +6553,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6572,27 +6576,27 @@
       <c r="K107" t="n">
         <v>6</v>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6606,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0100030003</t>
+          <t>3003000203</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6611,10 +6615,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -6623,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6634,27 +6638,31 @@
       <c r="K108" t="n">
         <v>6</v>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6664,7 +6672,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0203010103</t>
+          <t>0003010103</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6682,13 +6690,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>3</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6701,13 +6709,13 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -6722,7 +6730,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3003000203</t>
+          <t>0100030003</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6731,10 +6739,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -6743,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6754,31 +6762,27 @@
       <c r="K110" t="n">
         <v>6</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6788,7 +6792,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0101030003</t>
+          <t>0203003003</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -6797,7 +6801,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -6806,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6820,23 +6824,31 @@
       <c r="K111" t="n">
         <v>6</v>
       </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6858,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3001030303</t>
+          <t>3000030303</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -6858,13 +6870,13 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -6883,13 +6895,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>1</t>
@@ -6912,7 +6924,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0001030103</t>
+          <t>0103020103</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6930,13 +6942,13 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6949,18 +6961,18 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6982,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0000030103</t>
+          <t>3003000003</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6979,19 +6991,19 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -7002,27 +7014,27 @@
       <c r="K114" t="n">
         <v>6</v>
       </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7044,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3002030203</t>
+          <t>0103010003</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7041,7 +7053,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -7053,10 +7065,10 @@
         <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -7064,31 +7076,23 @@
       <c r="K115" t="n">
         <v>6</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7102,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0103020103</t>
+          <t>0101030003</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7116,13 +7120,13 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>3</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -7135,18 +7139,18 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7160,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0103010203</t>
+          <t>0203010103</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7199,7 +7203,7 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -7214,7 +7218,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3000030303</t>
+          <t>0003003003</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7226,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -7238,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -7248,29 +7252,25 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0203003003</t>
+          <t>0102030103</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -7312,31 +7312,23 @@
       <c r="K119" t="n">
         <v>6</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7338,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0101030203</t>
+          <t>3002030203</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7355,7 +7347,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -7364,13 +7356,13 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -7378,18 +7370,26 @@
       <c r="K120" t="n">
         <v>6</v>
       </c>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3003010303</t>
+          <t>3001030303</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7445,7 +7445,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3003020203</t>
+          <t>0103000103</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7479,7 +7479,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -7502,26 +7502,18 @@
       <c r="K122" t="n">
         <v>6</v>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -7536,7 +7528,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0103000103</t>
+          <t>0101030203</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7554,13 +7546,13 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -7573,18 +7565,18 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7594,7 +7586,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>0003010103</t>
+          <t>0201030103</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7612,13 +7604,13 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -7631,18 +7623,18 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7644,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0200030103</t>
+          <t>3002030003</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7661,19 +7653,19 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -7684,22 +7676,26 @@
       <c r="K125" t="n">
         <v>6</v>
       </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -7714,7 +7710,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3003000003</t>
+          <t>0000030103</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7723,19 +7719,19 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -7746,27 +7742,27 @@
       <c r="K126" t="n">
         <v>6</v>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7772,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>0100030203</t>
+          <t>0103010203</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7788,13 +7784,13 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7809,26 +7805,22 @@
         <v>6</v>
       </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7830,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0103010003</t>
+          <t>3003010303</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -7847,7 +7839,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -7856,13 +7848,13 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -7870,18 +7862,26 @@
       <c r="K128" t="n">
         <v>6</v>
       </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3002030003</t>
+          <t>3003020003</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -7937,7 +7937,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0030030303</t>
+          <t>3003000103</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7974,19 +7974,19 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -7996,29 +7996,29 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0101030103</t>
+          <t>3002030103</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -8046,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -8060,18 +8060,26 @@
       <c r="K131" t="n">
         <v>7</v>
       </c>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr"/>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -8086,7 +8094,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0103010103</t>
+          <t>3003020103</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8095,7 +8103,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -8104,13 +8112,13 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -8118,18 +8126,26 @@
       <c r="K132" t="n">
         <v>7</v>
       </c>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -8144,7 +8160,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3003010003</t>
+          <t>0103003003</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8178,19 +8194,19 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -8210,7 +8226,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3002030103</t>
+          <t>0100030103</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8219,10 +8235,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -8231,10 +8247,10 @@
         <v>2</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -8242,26 +8258,22 @@
       <c r="K134" t="n">
         <v>7</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -8276,7 +8288,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3003020103</t>
+          <t>0030030303</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8288,13 +8300,13 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -8310,29 +8322,29 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8354,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>0100030103</t>
+          <t>3001030003</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8351,19 +8363,19 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -8374,19 +8386,23 @@
       <c r="K136" t="n">
         <v>7</v>
       </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q136" t="inlineStr">
         <is>
           <t>2, 4, 8</t>
@@ -8404,7 +8420,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3001030203</t>
+          <t>3003010203</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8445,7 +8461,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -8455,12 +8471,12 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -8540,7 +8556,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3003000103</t>
+          <t>3003010003</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8581,7 +8597,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -8606,7 +8622,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3001030003</t>
+          <t>0103010103</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8615,7 +8631,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -8624,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -8638,31 +8654,23 @@
       <c r="K140" t="n">
         <v>7</v>
       </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8746,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0103003003</t>
+          <t>3001030203</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8756,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -8772,29 +8780,29 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8804,7 +8812,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3003010203</t>
+          <t>0101030103</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8813,7 +8821,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -8822,13 +8830,13 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -8836,31 +8844,23 @@
       <c r="K143" t="n">
         <v>7</v>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3001030103</t>
+          <t>0030030003</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8882,13 +8882,13 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -8904,19 +8904,19 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0030030003</t>
+          <t>3000030103</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9014,13 +9014,13 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -9036,19 +9036,23 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -9138,7 +9142,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3003010103</t>
+          <t>0010030303</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -9150,19 +9154,19 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -9172,29 +9176,33 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9212,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>0010030303</t>
+          <t>3001030103</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -9216,19 +9224,19 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -9238,28 +9246,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>1, 4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -9274,7 +9278,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3000030103</t>
+          <t>3003010103</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9286,13 +9290,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -9311,15 +9315,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>0010030203</t>
+          <t>0020030003</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -9432,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -9459,7 +9459,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>3030030003</t>
+          <t>0010030203</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -9493,22 +9493,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -9518,24 +9518,28 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -9550,7 +9554,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3030030203</t>
+          <t>0030030103</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -9559,10 +9563,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -9571,10 +9575,10 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -9584,12 +9588,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
@@ -9600,12 +9604,12 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -9690,7 +9694,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>0020030203</t>
+          <t>3030030203</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -9699,19 +9703,19 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -9724,23 +9728,23 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
@@ -9760,7 +9764,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>0030030103</t>
+          <t>0020030203</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -9778,13 +9782,13 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -9805,7 +9809,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -9815,7 +9819,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -9830,7 +9834,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>0020030003</t>
+          <t>3030030003</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -9839,19 +9843,19 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -9864,23 +9868,19 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3030030103</t>
+          <t>0010030103</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -9909,19 +9909,19 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -9934,23 +9934,23 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>0010030103</t>
+          <t>0020030103</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>0020030103</t>
+          <t>3030030103</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10049,19 +10049,19 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -10074,23 +10074,23 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
